--- a/0_Report/measurements.xlsx
+++ b/0_Report/measurements.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="44">
   <si>
     <t>Power Consumption</t>
   </si>
@@ -147,16 +148,31 @@
   </si>
   <si>
     <t>Notification Enabled</t>
+  </si>
+  <si>
+    <t>Extension Board measurements</t>
+  </si>
+  <si>
+    <t>Peripheral measurements</t>
+  </si>
+  <si>
+    <t>Central measurements</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -182,7 +198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -378,11 +394,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -487,6 +521,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20DC6F3-2D10-415D-B344-F5448D8316EF}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R57" sqref="R57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1088,394 +1126,1029 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="10" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="42" t="s">
         <v>5</v>
       </c>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="40"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="7" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="24" spans="1:9" ht="119.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="14"/>
-      <c r="B24" s="30" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="25" spans="1:9" ht="119.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="14"/>
+      <c r="B25" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C25" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D25" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E25" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F25" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="32" t="s">
+      <c r="G25" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H25" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="31" t="s">
+      <c r="I25" s="31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="7" t="s">
+      <c r="B26" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="5" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="7" t="s">
+      <c r="B28" s="34"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="3" t="s">
+      <c r="B29" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="23"/>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="7" t="s">
+      <c r="B30" s="18"/>
+      <c r="C30" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="23"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="3" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="39" t="s">
+      <c r="B32" s="18"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="3" t="s">
+      <c r="B33" s="40"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" s="7" t="s">
+      <c r="B34" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="8"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" s="3" t="s">
+      <c r="B35" s="20"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" s="7" t="s">
+      <c r="B36" s="18"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H36" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="3" t="s">
+      <c r="B37" s="20"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H37" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="I37" s="6" t="s">
+      <c r="B38" s="37"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="18"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="18"/>
+      <c r="C47" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="19"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A52" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A54" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="20"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="18"/>
+      <c r="C55" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A56" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="20"/>
+      <c r="C56" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="34"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="18"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" s="40"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="18"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="23"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A63" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="20"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A64" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" s="18"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A66" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H67" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A68" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="20"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H68" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A69" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="34"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H69" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="8"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A71" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="18"/>
+      <c r="C71" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H71" s="23"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A72" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="20"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="8"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A73" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="18"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A74" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74" s="40"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H74" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="I74" s="41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H75" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A76" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B76" s="20"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="8"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A77" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B77" s="18"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H77" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A78" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" s="20"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H78" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A79" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" s="37"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G79" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H79" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I79" s="6" t="s">
         <v>5</v>
       </c>
     </row>

--- a/0_Report/measurements.xlsx
+++ b/0_Report/measurements.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="45">
   <si>
     <t>Power Consumption</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Central measurements</t>
+  </si>
+  <si>
+    <t>Conn. Event Interval</t>
   </si>
 </sst>
 </file>
@@ -839,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20DC6F3-2D10-415D-B344-F5448D8316EF}">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R57" sqref="R57"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q69" sqref="Q69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1542,21 +1545,19 @@
       <c r="C44" s="43"/>
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B45" s="18"/>
-      <c r="C45" s="23"/>
+      <c r="C45" s="23" t="s">
+        <v>5</v>
+      </c>
       <c r="D45" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="9" t="s">
+      <c r="E45" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1565,12 +1566,9 @@
         <v>2</v>
       </c>
       <c r="B46" s="17"/>
-      <c r="C46" s="22" t="s">
-        <v>5</v>
-      </c>
+      <c r="C46" s="25"/>
       <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1579,12 +1577,9 @@
         <v>3</v>
       </c>
       <c r="B47" s="18"/>
-      <c r="C47" s="23" t="s">
-        <v>5</v>
-      </c>
+      <c r="C47" s="23"/>
       <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1593,16 +1588,15 @@
         <v>6</v>
       </c>
       <c r="B48" s="19"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C48" s="26"/>
+      <c r="D48" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>0</v>
       </c>
@@ -1615,30 +1609,26 @@
       <c r="D49" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E49" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B50" s="20"/>
-      <c r="C50" s="25"/>
+      <c r="C50" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="D50" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E50" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E50" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52" s="43" t="s">
         <v>42</v>
       </c>
@@ -1646,11 +1636,8 @@
       <c r="C52" s="43"/>
       <c r="D52" s="43"/>
       <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>4</v>
       </c>
@@ -1663,146 +1650,96 @@
       <c r="D53" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G53" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E53" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D54" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B55" s="18"/>
-      <c r="C55" s="23" t="s">
-        <v>5</v>
-      </c>
+      <c r="C55" s="23"/>
       <c r="D55" s="23"/>
-      <c r="E55" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E55" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B56" s="20"/>
-      <c r="C56" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="C56" s="25"/>
       <c r="D56" s="25"/>
-      <c r="E56" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E56" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A57" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B57" s="34"/>
       <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="D57" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A58" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B58" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="C58" s="25"/>
       <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="8"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B59" s="18"/>
-      <c r="C59" s="23"/>
+      <c r="C59" s="23" t="s">
+        <v>5</v>
+      </c>
       <c r="D59" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E59" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="39" t="s">
         <v>40</v>
       </c>
       <c r="B60" s="40"/>
       <c r="C60" s="26"/>
       <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="E60" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A61" s="7" t="s">
         <v>0</v>
       </c>
@@ -1815,293 +1752,77 @@
       <c r="D61" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E61" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G61" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E61" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B62" s="18"/>
       <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="23"/>
-      <c r="H62" s="6"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D62" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G63" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E63" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B64" s="18"/>
       <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G64" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="43" t="s">
+      <c r="D64" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A76" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A67" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F67" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G67" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H67" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A68" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="20"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G68" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H68" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A69" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="34"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G69" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H69" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="I69" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="8"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A71" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B71" s="18"/>
-      <c r="C71" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H71" s="23"/>
-      <c r="I71" s="6"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A72" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="8"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A73" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B73" s="18"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
-      <c r="I73" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A74" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B74" s="40"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H74" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="I74" s="41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E75" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G75" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H75" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="I75" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A76" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="8"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="43"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B77" s="18"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
+        <v>4</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>5</v>
+      </c>
       <c r="G77" s="23" t="s">
         <v>5</v>
       </c>
@@ -2114,13 +1835,15 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="7" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
       <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
+      <c r="F78" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="G78" s="25" t="s">
         <v>5</v>
       </c>
@@ -2131,24 +1854,214 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A79" s="3" t="s">
+    <row r="79" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A79" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="34"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G79" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H79" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="I79" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="8"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A81" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" s="18"/>
+      <c r="C81" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="23"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A82" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B82" s="20"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I82" s="8"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A83" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83" s="18"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23"/>
+      <c r="I83" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A84" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" s="40"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H84" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="I84" s="41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G85" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H85" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A86" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" s="20"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="8"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A87" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87" s="18"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H87" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A88" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B88" s="20"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H88" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A89" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B79" s="37"/>
-      <c r="C79" s="38"/>
-      <c r="D79" s="38"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G79" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H79" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="I79" s="6" t="s">
+      <c r="B89" s="37"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="38"/>
+      <c r="F89" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="6" t="s">
         <v>5</v>
       </c>
     </row>
